--- a/Code/Results/Cases/Case_1_212/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_212/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.8809769161002037</v>
+        <v>1.084580244026112</v>
       </c>
       <c r="D2">
-        <v>1.02529055275281</v>
+        <v>1.03312030727396</v>
       </c>
       <c r="E2">
-        <v>0.9069395805752716</v>
+        <v>1.085074576338601</v>
       </c>
       <c r="F2">
-        <v>0.9140761299475199</v>
+        <v>1.091372745410925</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042167594207661</v>
+        <v>1.035677275773746</v>
       </c>
       <c r="J2">
-        <v>0.9074109567242366</v>
+        <v>1.089439326073989</v>
       </c>
       <c r="K2">
-        <v>1.036408444710583</v>
+        <v>1.035923571682</v>
       </c>
       <c r="L2">
-        <v>0.9198680415907542</v>
+        <v>1.08773594734803</v>
       </c>
       <c r="M2">
-        <v>0.92687820909705</v>
+        <v>1.094017906505344</v>
       </c>
       <c r="N2">
-        <v>0.9086995843642764</v>
+        <v>1.090986454877451</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9171749350526248</v>
+        <v>1.088554220956089</v>
       </c>
       <c r="D3">
-        <v>1.030048815525607</v>
+        <v>1.033712597582539</v>
       </c>
       <c r="E3">
-        <v>0.9387487982306884</v>
+        <v>1.088594076997211</v>
       </c>
       <c r="F3">
-        <v>0.9460919190947716</v>
+        <v>1.094907733995827</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045933368063525</v>
+        <v>1.035967443082695</v>
       </c>
       <c r="J3">
-        <v>0.9402098163905119</v>
+        <v>1.093062457141762</v>
       </c>
       <c r="K3">
-        <v>1.040311127418799</v>
+        <v>1.036325355068198</v>
       </c>
       <c r="L3">
-        <v>0.9502304118026998</v>
+        <v>1.091068096554292</v>
       </c>
       <c r="M3">
-        <v>0.9574644226681123</v>
+        <v>1.097366751325449</v>
       </c>
       <c r="N3">
-        <v>0.9415450221733598</v>
+        <v>1.09461473120692</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9372224117956421</v>
+        <v>1.091099880722971</v>
       </c>
       <c r="D4">
-        <v>1.032823935309574</v>
+        <v>1.034092087236805</v>
       </c>
       <c r="E4">
-        <v>0.956401708772239</v>
+        <v>1.090847350439783</v>
       </c>
       <c r="F4">
-        <v>0.9638801789552408</v>
+        <v>1.097169961554572</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04804559778313</v>
+        <v>1.036149929696968</v>
       </c>
       <c r="J4">
-        <v>0.9583807272957495</v>
+        <v>1.095381736569225</v>
       </c>
       <c r="K4">
-        <v>1.042541709468313</v>
+        <v>1.03658088644504</v>
       </c>
       <c r="L4">
-        <v>0.9670564555805669</v>
+        <v>1.093200091228617</v>
       </c>
       <c r="M4">
-        <v>0.9744350145338645</v>
+        <v>1.099508478553141</v>
       </c>
       <c r="N4">
-        <v>0.9597417378563153</v>
+        <v>1.096937304277195</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9450578829548266</v>
+        <v>1.092164108474489</v>
       </c>
       <c r="D5">
-        <v>1.033934561510552</v>
+        <v>1.034250736585222</v>
       </c>
       <c r="E5">
-        <v>0.9633067341438923</v>
+        <v>1.09178904086655</v>
       </c>
       <c r="F5">
-        <v>0.9708413117479964</v>
+        <v>1.098115160300037</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048874117100904</v>
+        <v>1.036225399593805</v>
       </c>
       <c r="J5">
-        <v>0.9654825185176519</v>
+        <v>1.096350932256881</v>
       </c>
       <c r="K5">
-        <v>1.043425197841498</v>
+        <v>1.036687259228753</v>
       </c>
       <c r="L5">
-        <v>0.9736328516240915</v>
+        <v>1.094090778394488</v>
       </c>
       <c r="M5">
-        <v>0.9810710745940605</v>
+        <v>1.100403000555735</v>
       </c>
       <c r="N5">
-        <v>0.9668536144363397</v>
+        <v>1.097907876333895</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.946343117410846</v>
+        <v>1.092342452800936</v>
       </c>
       <c r="D6">
-        <v>1.034118097415431</v>
+        <v>1.0342773227838</v>
       </c>
       <c r="E6">
-        <v>0.9644396051239358</v>
+        <v>1.091946832381985</v>
       </c>
       <c r="F6">
-        <v>0.9719835355940762</v>
+        <v>1.098273525854189</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04901011497922</v>
+        <v>1.03623799857866</v>
       </c>
       <c r="J6">
-        <v>0.9666473611077754</v>
+        <v>1.096513327957199</v>
       </c>
       <c r="K6">
-        <v>1.043570692540942</v>
+        <v>1.036705058318497</v>
       </c>
       <c r="L6">
-        <v>0.9747115115028987</v>
+        <v>1.094240005038176</v>
       </c>
       <c r="M6">
-        <v>0.9821596693396863</v>
+        <v>1.100552856018284</v>
       </c>
       <c r="N6">
-        <v>0.9680201112365506</v>
+        <v>1.098070502654735</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9373292305537735</v>
+        <v>1.091114124171386</v>
       </c>
       <c r="D7">
-        <v>1.032838979488977</v>
+        <v>1.034094210590322</v>
       </c>
       <c r="E7">
-        <v>0.9564958242168391</v>
+        <v>1.090859955067615</v>
       </c>
       <c r="F7">
-        <v>0.9639750482549185</v>
+        <v>1.097182614067086</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048056884478157</v>
+        <v>1.03615094301219</v>
       </c>
       <c r="J7">
-        <v>0.9584775465975048</v>
+        <v>1.09539470967109</v>
       </c>
       <c r="K7">
-        <v>1.042553712002839</v>
+        <v>1.036582311922842</v>
       </c>
       <c r="L7">
-        <v>0.9671461121946241</v>
+        <v>1.093212014425301</v>
       </c>
       <c r="M7">
-        <v>0.9745254736007862</v>
+        <v>1.099520454000371</v>
       </c>
       <c r="N7">
-        <v>0.9598386946525842</v>
+        <v>1.096950295802352</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.8940828860215619</v>
+        <v>1.085928727111042</v>
       </c>
       <c r="D8">
-        <v>1.0269748845505</v>
+        <v>1.033321261131592</v>
       </c>
       <c r="E8">
-        <v>0.9184454138379159</v>
+        <v>1.086269103147404</v>
       </c>
       <c r="F8">
-        <v>0.9256503798281147</v>
+        <v>1.092572727252439</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043522044455778</v>
+        <v>1.035776439430744</v>
       </c>
       <c r="J8">
-        <v>0.9192833482784685</v>
+        <v>1.090669097336284</v>
       </c>
       <c r="K8">
-        <v>1.037801452189647</v>
+        <v>1.036060285252374</v>
       </c>
       <c r="L8">
-        <v>0.9308564757833825</v>
+        <v>1.088867164676471</v>
       </c>
       <c r="M8">
-        <v>0.9379414449970435</v>
+        <v>1.095154987626646</v>
       </c>
       <c r="N8">
-        <v>0.9205888360762976</v>
+        <v>1.092217972555996</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.7598800743494294</v>
+        <v>1.076584684746066</v>
       </c>
       <c r="D9">
-        <v>1.011908787632563</v>
+        <v>1.031929828578845</v>
       </c>
       <c r="E9">
-        <v>0.8015285367770784</v>
+        <v>1.077986725810156</v>
       </c>
       <c r="F9">
-        <v>0.8085068455892561</v>
+        <v>1.084248648760612</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030398280006547</v>
+        <v>1.035075472029812</v>
       </c>
       <c r="J9">
-        <v>0.7981098092663614</v>
+        <v>1.08214085784312</v>
       </c>
       <c r="K9">
-        <v>1.02481156327789</v>
+        <v>1.035105741197273</v>
       </c>
       <c r="L9">
-        <v>0.8189422902691694</v>
+        <v>1.081018157687755</v>
       </c>
       <c r="M9">
-        <v>0.8257192892226725</v>
+        <v>1.087261469720308</v>
       </c>
       <c r="N9">
-        <v>0.7992432167399943</v>
+        <v>1.083677621984548</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.7598800743494294</v>
+        <v>1.070202816701081</v>
       </c>
       <c r="D10">
-        <v>1.011908787632563</v>
+        <v>1.030981582126701</v>
       </c>
       <c r="E10">
-        <v>0.8015285367770784</v>
+        <v>1.072323574511657</v>
       </c>
       <c r="F10">
-        <v>0.8085068455892561</v>
+        <v>1.07855223380891</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030398280006547</v>
+        <v>1.034579580325208</v>
       </c>
       <c r="J10">
-        <v>0.7981098092663614</v>
+        <v>1.076307635532859</v>
       </c>
       <c r="K10">
-        <v>1.02481156327789</v>
+        <v>1.034445207262348</v>
       </c>
       <c r="L10">
-        <v>0.8189422902691694</v>
+        <v>1.075644222990974</v>
       </c>
       <c r="M10">
-        <v>0.8257192892226725</v>
+        <v>1.081852383646115</v>
       </c>
       <c r="N10">
-        <v>0.7992432167399943</v>
+        <v>1.077836115829526</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.7598800743494294</v>
+        <v>1.067400073508675</v>
       </c>
       <c r="D11">
-        <v>1.011908787632563</v>
+        <v>1.030565885211432</v>
       </c>
       <c r="E11">
-        <v>0.8015285367770784</v>
+        <v>1.069834994285905</v>
       </c>
       <c r="F11">
-        <v>0.8085068455892561</v>
+        <v>1.076047959097567</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030398280006547</v>
+        <v>1.034357843132061</v>
       </c>
       <c r="J11">
-        <v>0.7981098092663614</v>
+        <v>1.073743830062632</v>
       </c>
       <c r="K11">
-        <v>1.02481156327789</v>
+        <v>1.034153251532801</v>
       </c>
       <c r="L11">
-        <v>0.8189422902691694</v>
+        <v>1.073281037098021</v>
       </c>
       <c r="M11">
-        <v>0.8257192892226725</v>
+        <v>1.079472682495735</v>
       </c>
       <c r="N11">
-        <v>0.7992432167399943</v>
+        <v>1.07526866946146</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.7598800743494294</v>
+        <v>1.066352816666969</v>
       </c>
       <c r="D12">
-        <v>1.011908787632563</v>
+        <v>1.030410692213222</v>
       </c>
       <c r="E12">
-        <v>0.8015285367770784</v>
+        <v>1.068904907071711</v>
       </c>
       <c r="F12">
-        <v>0.8085068455892561</v>
+        <v>1.075111848652498</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030398280006547</v>
+        <v>1.03427440558879</v>
       </c>
       <c r="J12">
-        <v>0.7981098092663614</v>
+        <v>1.072785552156155</v>
       </c>
       <c r="K12">
-        <v>1.02481156327789</v>
+        <v>1.034043895286085</v>
       </c>
       <c r="L12">
-        <v>0.8189422902691694</v>
+        <v>1.072397559058168</v>
       </c>
       <c r="M12">
-        <v>0.8257192892226725</v>
+        <v>1.078582875850084</v>
       </c>
       <c r="N12">
-        <v>0.7992432167399943</v>
+        <v>1.074309030690439</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.7598800743494294</v>
+        <v>1.066577741719417</v>
       </c>
       <c r="D13">
-        <v>1.011908787632563</v>
+        <v>1.030444017451906</v>
       </c>
       <c r="E13">
-        <v>0.8015285367770784</v>
+        <v>1.069104676798172</v>
       </c>
       <c r="F13">
-        <v>0.8085068455892561</v>
+        <v>1.075312919137159</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030398280006547</v>
+        <v>1.034292352193692</v>
       </c>
       <c r="J13">
-        <v>0.7981098092663614</v>
+        <v>1.072991380314381</v>
       </c>
       <c r="K13">
-        <v>1.02481156327789</v>
+        <v>1.034067394098109</v>
       </c>
       <c r="L13">
-        <v>0.8189422902691694</v>
+        <v>1.072587329374588</v>
       </c>
       <c r="M13">
-        <v>0.8257192892226725</v>
+        <v>1.078774012451435</v>
       </c>
       <c r="N13">
-        <v>0.7992432167399943</v>
+        <v>1.074515151148259</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.7598800743494294</v>
+        <v>1.067313634938957</v>
       </c>
       <c r="D14">
-        <v>1.011908787632563</v>
+        <v>1.030553073026383</v>
       </c>
       <c r="E14">
-        <v>0.8015285367770784</v>
+        <v>1.069758231105423</v>
       </c>
       <c r="F14">
-        <v>0.8085068455892561</v>
+        <v>1.075970701982132</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030398280006547</v>
+        <v>1.034350968201893</v>
       </c>
       <c r="J14">
-        <v>0.7981098092663614</v>
+        <v>1.073664741768068</v>
       </c>
       <c r="K14">
-        <v>1.02481156327789</v>
+        <v>1.034144230803</v>
       </c>
       <c r="L14">
-        <v>0.8189422902691694</v>
+        <v>1.073208125944328</v>
       </c>
       <c r="M14">
-        <v>0.8257192892226725</v>
+        <v>1.079399252174972</v>
       </c>
       <c r="N14">
-        <v>0.7992432167399943</v>
+        <v>1.075189468852446</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.7598800743494294</v>
+        <v>1.06776621376657</v>
       </c>
       <c r="D15">
-        <v>1.011908787632563</v>
+        <v>1.030620161223552</v>
       </c>
       <c r="E15">
-        <v>0.8015285367770784</v>
+        <v>1.070160142194451</v>
       </c>
       <c r="F15">
-        <v>0.8085068455892561</v>
+        <v>1.076375192770239</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030398280006547</v>
+        <v>1.034386940439408</v>
       </c>
       <c r="J15">
-        <v>0.7981098092663614</v>
+        <v>1.07407882340887</v>
       </c>
       <c r="K15">
-        <v>1.02481156327789</v>
+        <v>1.034191451164332</v>
       </c>
       <c r="L15">
-        <v>0.8189422902691694</v>
+        <v>1.073589858408757</v>
       </c>
       <c r="M15">
-        <v>0.8257192892226725</v>
+        <v>1.079783696503827</v>
       </c>
       <c r="N15">
-        <v>0.7992432167399943</v>
+        <v>1.075604138536674</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.7598800743494294</v>
+        <v>1.070387972720683</v>
       </c>
       <c r="D16">
-        <v>1.011908787632563</v>
+        <v>1.031009061558281</v>
       </c>
       <c r="E16">
-        <v>0.8015285367770784</v>
+        <v>1.072487945480875</v>
       </c>
       <c r="F16">
-        <v>0.8085068455892561</v>
+        <v>1.078717619199092</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030398280006547</v>
+        <v>1.034594146780513</v>
       </c>
       <c r="J16">
-        <v>0.7981098092663614</v>
+        <v>1.076476964682975</v>
       </c>
       <c r="K16">
-        <v>1.02481156327789</v>
+        <v>1.034464456695857</v>
       </c>
       <c r="L16">
-        <v>0.8189422902691694</v>
+        <v>1.075800276019674</v>
       </c>
       <c r="M16">
-        <v>0.8257192892226725</v>
+        <v>1.082009505496947</v>
       </c>
       <c r="N16">
-        <v>0.7992432167399943</v>
+        <v>1.078005685446458</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.7598800743494294</v>
+        <v>1.072021802549288</v>
       </c>
       <c r="D17">
-        <v>1.011908787632563</v>
+        <v>1.031251630327275</v>
       </c>
       <c r="E17">
-        <v>0.8015285367770784</v>
+        <v>1.073938197482961</v>
       </c>
       <c r="F17">
-        <v>0.8085068455892561</v>
+        <v>1.080176698508347</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030398280006547</v>
+        <v>1.034722229879739</v>
       </c>
       <c r="J17">
-        <v>0.7981098092663614</v>
+        <v>1.077970906458706</v>
       </c>
       <c r="K17">
-        <v>1.02481156327789</v>
+        <v>1.034634102757089</v>
       </c>
       <c r="L17">
-        <v>0.8189422902691694</v>
+        <v>1.077176943806046</v>
       </c>
       <c r="M17">
-        <v>0.8257192892226725</v>
+        <v>1.083395481586696</v>
       </c>
       <c r="N17">
-        <v>0.7992432167399943</v>
+        <v>1.079501748790868</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.7598800743494294</v>
+        <v>1.072971010524045</v>
       </c>
       <c r="D18">
-        <v>1.011908787632563</v>
+        <v>1.03139262580981</v>
       </c>
       <c r="E18">
-        <v>0.8015285367770784</v>
+        <v>1.074780610409406</v>
       </c>
       <c r="F18">
-        <v>0.8085068455892561</v>
+        <v>1.081024135655641</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030398280006547</v>
+        <v>1.034796263411197</v>
       </c>
       <c r="J18">
-        <v>0.7981098092663614</v>
+        <v>1.078838650872932</v>
       </c>
       <c r="K18">
-        <v>1.02481156327789</v>
+        <v>1.034732482586294</v>
       </c>
       <c r="L18">
-        <v>0.8189422902691694</v>
+        <v>1.077976451353359</v>
       </c>
       <c r="M18">
-        <v>0.8257192892226725</v>
+        <v>1.084200293586128</v>
       </c>
       <c r="N18">
-        <v>0.7992432167399943</v>
+        <v>1.080370725501694</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.7598800743494294</v>
+        <v>1.073294033547345</v>
       </c>
       <c r="D19">
-        <v>1.011908787632563</v>
+        <v>1.031440618926344</v>
       </c>
       <c r="E19">
-        <v>0.8015285367770784</v>
+        <v>1.075067266107048</v>
       </c>
       <c r="F19">
-        <v>0.8085068455892561</v>
+        <v>1.081312483337479</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030398280006547</v>
+        <v>1.034821393028898</v>
       </c>
       <c r="J19">
-        <v>0.7981098092663614</v>
+        <v>1.079133918488378</v>
       </c>
       <c r="K19">
-        <v>1.02481156327789</v>
+        <v>1.03476593111551</v>
       </c>
       <c r="L19">
-        <v>0.8189422902691694</v>
+        <v>1.078248479744929</v>
       </c>
       <c r="M19">
-        <v>0.8257192892226725</v>
+        <v>1.084474109458128</v>
       </c>
       <c r="N19">
-        <v>0.7992432167399943</v>
+        <v>1.080666412431022</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.7598800743494294</v>
+        <v>1.071846900769905</v>
       </c>
       <c r="D20">
-        <v>1.011908787632563</v>
+        <v>1.031225655887883</v>
       </c>
       <c r="E20">
-        <v>0.8015285367770784</v>
+        <v>1.073782962391629</v>
       </c>
       <c r="F20">
-        <v>0.8085068455892561</v>
+        <v>1.080020529215615</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030398280006547</v>
+        <v>1.034708557759604</v>
       </c>
       <c r="J20">
-        <v>0.7981098092663614</v>
+        <v>1.077810999668594</v>
       </c>
       <c r="K20">
-        <v>1.02481156327789</v>
+        <v>1.034615960619753</v>
       </c>
       <c r="L20">
-        <v>0.8189422902691694</v>
+        <v>1.077029601992348</v>
       </c>
       <c r="M20">
-        <v>0.8257192892226725</v>
+        <v>1.08324715399891</v>
       </c>
       <c r="N20">
-        <v>0.7992432167399943</v>
+        <v>1.079341614914773</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.7598800743494294</v>
+        <v>1.067097106009377</v>
       </c>
       <c r="D21">
-        <v>1.011908787632563</v>
+        <v>1.030520980690955</v>
       </c>
       <c r="E21">
-        <v>0.8015285367770784</v>
+        <v>1.069565935544834</v>
       </c>
       <c r="F21">
-        <v>0.8085068455892561</v>
+        <v>1.075777166563848</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030398280006547</v>
+        <v>1.034333737081951</v>
       </c>
       <c r="J21">
-        <v>0.7981098092663614</v>
+        <v>1.073466620450771</v>
       </c>
       <c r="K21">
-        <v>1.02481156327789</v>
+        <v>1.034121629606209</v>
       </c>
       <c r="L21">
-        <v>0.8189422902691694</v>
+        <v>1.07302547576916</v>
       </c>
       <c r="M21">
-        <v>0.8257192892226725</v>
+        <v>1.079215298956916</v>
       </c>
       <c r="N21">
-        <v>0.7992432167399943</v>
+        <v>1.074991066180153</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.7598800743494294</v>
+        <v>1.064074741281016</v>
       </c>
       <c r="D22">
-        <v>1.011908787632563</v>
+        <v>1.030073373844432</v>
       </c>
       <c r="E22">
-        <v>0.8015285367770784</v>
+        <v>1.066881311074309</v>
       </c>
       <c r="F22">
-        <v>0.8085068455892561</v>
+        <v>1.073074863808862</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030398280006547</v>
+        <v>1.034091844788962</v>
       </c>
       <c r="J22">
-        <v>0.7981098092663614</v>
+        <v>1.070700479949765</v>
       </c>
       <c r="K22">
-        <v>1.02481156327789</v>
+        <v>1.033805544157839</v>
       </c>
       <c r="L22">
-        <v>0.8189422902691694</v>
+        <v>1.070474900426695</v>
       </c>
       <c r="M22">
-        <v>0.8257192892226725</v>
+        <v>1.076646166572024</v>
       </c>
       <c r="N22">
-        <v>0.7992432167399943</v>
+        <v>1.072220997442355</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.7598800743494294</v>
+        <v>1.065680461567747</v>
       </c>
       <c r="D23">
-        <v>1.011908787632563</v>
+        <v>1.030311096351805</v>
       </c>
       <c r="E23">
-        <v>0.8015285367770784</v>
+        <v>1.068307715526734</v>
       </c>
       <c r="F23">
-        <v>0.8085068455892561</v>
+        <v>1.07451074588247</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030398280006547</v>
+        <v>1.034220674011907</v>
       </c>
       <c r="J23">
-        <v>0.7981098092663614</v>
+        <v>1.072170238255548</v>
       </c>
       <c r="K23">
-        <v>1.02481156327789</v>
+        <v>1.033973613905696</v>
       </c>
       <c r="L23">
-        <v>0.8189422902691694</v>
+        <v>1.071830222177512</v>
       </c>
       <c r="M23">
-        <v>0.8257192892226725</v>
+        <v>1.078011432066209</v>
       </c>
       <c r="N23">
-        <v>0.7992432167399943</v>
+        <v>1.073692842973516</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.7598800743494294</v>
+        <v>1.071925943009241</v>
       </c>
       <c r="D24">
-        <v>1.011908787632563</v>
+        <v>1.031237394134564</v>
       </c>
       <c r="E24">
-        <v>0.8015285367770784</v>
+        <v>1.073853117229439</v>
       </c>
       <c r="F24">
-        <v>0.8085068455892561</v>
+        <v>1.080091106563909</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030398280006547</v>
+        <v>1.034714737687242</v>
       </c>
       <c r="J24">
-        <v>0.7981098092663614</v>
+        <v>1.077883265915003</v>
       </c>
       <c r="K24">
-        <v>1.02481156327789</v>
+        <v>1.034624160036699</v>
       </c>
       <c r="L24">
-        <v>0.8189422902691694</v>
+        <v>1.077096190151747</v>
       </c>
       <c r="M24">
-        <v>0.8257192892226725</v>
+        <v>1.083314187973278</v>
       </c>
       <c r="N24">
-        <v>0.7992432167399943</v>
+        <v>1.079413983787542</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.7598800743494294</v>
+        <v>1.079026199013511</v>
       </c>
       <c r="D25">
-        <v>1.011908787632563</v>
+        <v>1.032293116840761</v>
       </c>
       <c r="E25">
-        <v>0.8015285367770784</v>
+        <v>1.080151961695951</v>
       </c>
       <c r="F25">
-        <v>0.8085068455892561</v>
+        <v>1.086425629927133</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030398280006547</v>
+        <v>1.035261651408421</v>
       </c>
       <c r="J25">
-        <v>0.7981098092663614</v>
+        <v>1.084370701988386</v>
       </c>
       <c r="K25">
-        <v>1.02481156327789</v>
+        <v>1.035356708200856</v>
       </c>
       <c r="L25">
-        <v>0.8189422902691694</v>
+        <v>1.083071332386426</v>
       </c>
       <c r="M25">
-        <v>0.8257192892226725</v>
+        <v>1.08932711869216</v>
       </c>
       <c r="N25">
-        <v>0.7992432167399943</v>
+        <v>1.085910632764267</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_212/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_212/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.084580244026112</v>
+        <v>0.8809769161002015</v>
       </c>
       <c r="D2">
-        <v>1.03312030727396</v>
+        <v>1.02529055275281</v>
       </c>
       <c r="E2">
-        <v>1.085074576338601</v>
+        <v>0.9069395805752696</v>
       </c>
       <c r="F2">
-        <v>1.091372745410925</v>
+        <v>0.9140761299475174</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035677275773746</v>
+        <v>1.04216759420766</v>
       </c>
       <c r="J2">
-        <v>1.089439326073989</v>
+        <v>0.9074109567242346</v>
       </c>
       <c r="K2">
-        <v>1.035923571682</v>
+        <v>1.036408444710583</v>
       </c>
       <c r="L2">
-        <v>1.08773594734803</v>
+        <v>0.919868041590752</v>
       </c>
       <c r="M2">
-        <v>1.094017906505344</v>
+        <v>0.9268782090970477</v>
       </c>
       <c r="N2">
-        <v>1.090986454877451</v>
+        <v>0.9086995843642746</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.088554220956089</v>
+        <v>0.9171749350526223</v>
       </c>
       <c r="D3">
-        <v>1.033712597582539</v>
+        <v>1.030048815525606</v>
       </c>
       <c r="E3">
-        <v>1.088594076997211</v>
+        <v>0.9387487982306861</v>
       </c>
       <c r="F3">
-        <v>1.094907733995827</v>
+        <v>0.9460919190947694</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035967443082695</v>
+        <v>1.045933368063524</v>
       </c>
       <c r="J3">
-        <v>1.093062457141762</v>
+        <v>0.9402098163905094</v>
       </c>
       <c r="K3">
-        <v>1.036325355068198</v>
+        <v>1.040311127418798</v>
       </c>
       <c r="L3">
-        <v>1.091068096554292</v>
+        <v>0.9502304118026976</v>
       </c>
       <c r="M3">
-        <v>1.097366751325449</v>
+        <v>0.9574644226681104</v>
       </c>
       <c r="N3">
-        <v>1.09461473120692</v>
+        <v>0.9415450221733573</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.091099880722971</v>
+        <v>0.9372224117956446</v>
       </c>
       <c r="D4">
-        <v>1.034092087236805</v>
+        <v>1.032823935309575</v>
       </c>
       <c r="E4">
-        <v>1.090847350439783</v>
+        <v>0.956401708772241</v>
       </c>
       <c r="F4">
-        <v>1.097169961554572</v>
+        <v>0.9638801789552428</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036149929696968</v>
+        <v>1.04804559778313</v>
       </c>
       <c r="J4">
-        <v>1.095381736569225</v>
+        <v>0.9583807272957517</v>
       </c>
       <c r="K4">
-        <v>1.03658088644504</v>
+        <v>1.042541709468313</v>
       </c>
       <c r="L4">
-        <v>1.093200091228617</v>
+        <v>0.9670564555805689</v>
       </c>
       <c r="M4">
-        <v>1.099508478553141</v>
+        <v>0.9744350145338664</v>
       </c>
       <c r="N4">
-        <v>1.096937304277195</v>
+        <v>0.9597417378563177</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.092164108474489</v>
+        <v>0.9450578829548302</v>
       </c>
       <c r="D5">
-        <v>1.034250736585222</v>
+        <v>1.033934561510552</v>
       </c>
       <c r="E5">
-        <v>1.09178904086655</v>
+        <v>0.9633067341438956</v>
       </c>
       <c r="F5">
-        <v>1.098115160300037</v>
+        <v>0.9708413117479999</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036225399593805</v>
+        <v>1.048874117100905</v>
       </c>
       <c r="J5">
-        <v>1.096350932256881</v>
+        <v>0.9654825185176553</v>
       </c>
       <c r="K5">
-        <v>1.036687259228753</v>
+        <v>1.043425197841498</v>
       </c>
       <c r="L5">
-        <v>1.094090778394488</v>
+        <v>0.9736328516240947</v>
       </c>
       <c r="M5">
-        <v>1.100403000555735</v>
+        <v>0.9810710745940638</v>
       </c>
       <c r="N5">
-        <v>1.097907876333895</v>
+        <v>0.9668536144363431</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.092342452800936</v>
+        <v>0.946343117410846</v>
       </c>
       <c r="D6">
-        <v>1.0342773227838</v>
+        <v>1.034118097415431</v>
       </c>
       <c r="E6">
-        <v>1.091946832381985</v>
+        <v>0.9644396051239355</v>
       </c>
       <c r="F6">
-        <v>1.098273525854189</v>
+        <v>0.9719835355940759</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03623799857866</v>
+        <v>1.049010114979219</v>
       </c>
       <c r="J6">
-        <v>1.096513327957199</v>
+        <v>0.9666473611077753</v>
       </c>
       <c r="K6">
-        <v>1.036705058318497</v>
+        <v>1.043570692540942</v>
       </c>
       <c r="L6">
-        <v>1.094240005038176</v>
+        <v>0.9747115115028983</v>
       </c>
       <c r="M6">
-        <v>1.100552856018284</v>
+        <v>0.982159669339686</v>
       </c>
       <c r="N6">
-        <v>1.098070502654735</v>
+        <v>0.9680201112365505</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.091114124171386</v>
+        <v>0.9373292305537737</v>
       </c>
       <c r="D7">
-        <v>1.034094210590322</v>
+        <v>1.032838979488977</v>
       </c>
       <c r="E7">
-        <v>1.090859955067615</v>
+        <v>0.9564958242168393</v>
       </c>
       <c r="F7">
-        <v>1.097182614067086</v>
+        <v>0.9639750482549189</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03615094301219</v>
+        <v>1.048056884478157</v>
       </c>
       <c r="J7">
-        <v>1.09539470967109</v>
+        <v>0.9584775465975052</v>
       </c>
       <c r="K7">
-        <v>1.036582311922842</v>
+        <v>1.04255371200284</v>
       </c>
       <c r="L7">
-        <v>1.093212014425301</v>
+        <v>0.9671461121946242</v>
       </c>
       <c r="M7">
-        <v>1.099520454000371</v>
+        <v>0.9745254736007866</v>
       </c>
       <c r="N7">
-        <v>1.096950295802352</v>
+        <v>0.9598386946525846</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.085928727111042</v>
+        <v>0.8940828860215623</v>
       </c>
       <c r="D8">
-        <v>1.033321261131592</v>
+        <v>1.0269748845505</v>
       </c>
       <c r="E8">
-        <v>1.086269103147404</v>
+        <v>0.9184454138379162</v>
       </c>
       <c r="F8">
-        <v>1.092572727252439</v>
+        <v>0.9256503798281148</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035776439430744</v>
+        <v>1.043522044455778</v>
       </c>
       <c r="J8">
-        <v>1.090669097336284</v>
+        <v>0.9192833482784686</v>
       </c>
       <c r="K8">
-        <v>1.036060285252374</v>
+        <v>1.037801452189647</v>
       </c>
       <c r="L8">
-        <v>1.088867164676471</v>
+        <v>0.9308564757833828</v>
       </c>
       <c r="M8">
-        <v>1.095154987626646</v>
+        <v>0.9379414449970436</v>
       </c>
       <c r="N8">
-        <v>1.092217972555996</v>
+        <v>0.920588836076298</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.076584684746066</v>
+        <v>0.7598800743494288</v>
       </c>
       <c r="D9">
-        <v>1.031929828578845</v>
+        <v>1.011908787632563</v>
       </c>
       <c r="E9">
-        <v>1.077986725810156</v>
+        <v>0.8015285367770778</v>
       </c>
       <c r="F9">
-        <v>1.084248648760612</v>
+        <v>0.8085068455892556</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035075472029812</v>
+        <v>1.030398280006548</v>
       </c>
       <c r="J9">
-        <v>1.08214085784312</v>
+        <v>0.7981098092663611</v>
       </c>
       <c r="K9">
-        <v>1.035105741197273</v>
+        <v>1.024811563277891</v>
       </c>
       <c r="L9">
-        <v>1.081018157687755</v>
+        <v>0.8189422902691691</v>
       </c>
       <c r="M9">
-        <v>1.087261469720308</v>
+        <v>0.8257192892226721</v>
       </c>
       <c r="N9">
-        <v>1.083677621984548</v>
+        <v>0.799243216739994</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.070202816701081</v>
+        <v>0.7598800743494288</v>
       </c>
       <c r="D10">
-        <v>1.030981582126701</v>
+        <v>1.011908787632563</v>
       </c>
       <c r="E10">
-        <v>1.072323574511657</v>
+        <v>0.8015285367770778</v>
       </c>
       <c r="F10">
-        <v>1.07855223380891</v>
+        <v>0.8085068455892556</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034579580325208</v>
+        <v>1.030398280006548</v>
       </c>
       <c r="J10">
-        <v>1.076307635532859</v>
+        <v>0.7981098092663611</v>
       </c>
       <c r="K10">
-        <v>1.034445207262348</v>
+        <v>1.024811563277891</v>
       </c>
       <c r="L10">
-        <v>1.075644222990974</v>
+        <v>0.8189422902691691</v>
       </c>
       <c r="M10">
-        <v>1.081852383646115</v>
+        <v>0.8257192892226721</v>
       </c>
       <c r="N10">
-        <v>1.077836115829526</v>
+        <v>0.799243216739994</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.067400073508675</v>
+        <v>0.7598800743494288</v>
       </c>
       <c r="D11">
-        <v>1.030565885211432</v>
+        <v>1.011908787632563</v>
       </c>
       <c r="E11">
-        <v>1.069834994285905</v>
+        <v>0.8015285367770778</v>
       </c>
       <c r="F11">
-        <v>1.076047959097567</v>
+        <v>0.8085068455892556</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034357843132061</v>
+        <v>1.030398280006548</v>
       </c>
       <c r="J11">
-        <v>1.073743830062632</v>
+        <v>0.7981098092663611</v>
       </c>
       <c r="K11">
-        <v>1.034153251532801</v>
+        <v>1.024811563277891</v>
       </c>
       <c r="L11">
-        <v>1.073281037098021</v>
+        <v>0.8189422902691691</v>
       </c>
       <c r="M11">
-        <v>1.079472682495735</v>
+        <v>0.8257192892226721</v>
       </c>
       <c r="N11">
-        <v>1.07526866946146</v>
+        <v>0.799243216739994</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.066352816666969</v>
+        <v>0.7598800743494288</v>
       </c>
       <c r="D12">
-        <v>1.030410692213222</v>
+        <v>1.011908787632563</v>
       </c>
       <c r="E12">
-        <v>1.068904907071711</v>
+        <v>0.8015285367770778</v>
       </c>
       <c r="F12">
-        <v>1.075111848652498</v>
+        <v>0.8085068455892556</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03427440558879</v>
+        <v>1.030398280006548</v>
       </c>
       <c r="J12">
-        <v>1.072785552156155</v>
+        <v>0.7981098092663611</v>
       </c>
       <c r="K12">
-        <v>1.034043895286085</v>
+        <v>1.024811563277891</v>
       </c>
       <c r="L12">
-        <v>1.072397559058168</v>
+        <v>0.8189422902691691</v>
       </c>
       <c r="M12">
-        <v>1.078582875850084</v>
+        <v>0.8257192892226721</v>
       </c>
       <c r="N12">
-        <v>1.074309030690439</v>
+        <v>0.799243216739994</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.066577741719417</v>
+        <v>0.7598800743494288</v>
       </c>
       <c r="D13">
-        <v>1.030444017451906</v>
+        <v>1.011908787632563</v>
       </c>
       <c r="E13">
-        <v>1.069104676798172</v>
+        <v>0.8015285367770778</v>
       </c>
       <c r="F13">
-        <v>1.075312919137159</v>
+        <v>0.8085068455892556</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034292352193692</v>
+        <v>1.030398280006548</v>
       </c>
       <c r="J13">
-        <v>1.072991380314381</v>
+        <v>0.7981098092663611</v>
       </c>
       <c r="K13">
-        <v>1.034067394098109</v>
+        <v>1.024811563277891</v>
       </c>
       <c r="L13">
-        <v>1.072587329374588</v>
+        <v>0.8189422902691691</v>
       </c>
       <c r="M13">
-        <v>1.078774012451435</v>
+        <v>0.8257192892226721</v>
       </c>
       <c r="N13">
-        <v>1.074515151148259</v>
+        <v>0.799243216739994</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.067313634938957</v>
+        <v>0.7598800743494288</v>
       </c>
       <c r="D14">
-        <v>1.030553073026383</v>
+        <v>1.011908787632563</v>
       </c>
       <c r="E14">
-        <v>1.069758231105423</v>
+        <v>0.8015285367770778</v>
       </c>
       <c r="F14">
-        <v>1.075970701982132</v>
+        <v>0.8085068455892556</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034350968201893</v>
+        <v>1.030398280006548</v>
       </c>
       <c r="J14">
-        <v>1.073664741768068</v>
+        <v>0.7981098092663611</v>
       </c>
       <c r="K14">
-        <v>1.034144230803</v>
+        <v>1.024811563277891</v>
       </c>
       <c r="L14">
-        <v>1.073208125944328</v>
+        <v>0.8189422902691691</v>
       </c>
       <c r="M14">
-        <v>1.079399252174972</v>
+        <v>0.8257192892226721</v>
       </c>
       <c r="N14">
-        <v>1.075189468852446</v>
+        <v>0.799243216739994</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.06776621376657</v>
+        <v>0.7598800743494288</v>
       </c>
       <c r="D15">
-        <v>1.030620161223552</v>
+        <v>1.011908787632563</v>
       </c>
       <c r="E15">
-        <v>1.070160142194451</v>
+        <v>0.8015285367770778</v>
       </c>
       <c r="F15">
-        <v>1.076375192770239</v>
+        <v>0.8085068455892556</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034386940439408</v>
+        <v>1.030398280006548</v>
       </c>
       <c r="J15">
-        <v>1.07407882340887</v>
+        <v>0.7981098092663611</v>
       </c>
       <c r="K15">
-        <v>1.034191451164332</v>
+        <v>1.024811563277891</v>
       </c>
       <c r="L15">
-        <v>1.073589858408757</v>
+        <v>0.8189422902691691</v>
       </c>
       <c r="M15">
-        <v>1.079783696503827</v>
+        <v>0.8257192892226721</v>
       </c>
       <c r="N15">
-        <v>1.075604138536674</v>
+        <v>0.799243216739994</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.070387972720683</v>
+        <v>0.7598800743494288</v>
       </c>
       <c r="D16">
-        <v>1.031009061558281</v>
+        <v>1.011908787632563</v>
       </c>
       <c r="E16">
-        <v>1.072487945480875</v>
+        <v>0.8015285367770778</v>
       </c>
       <c r="F16">
-        <v>1.078717619199092</v>
+        <v>0.8085068455892556</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034594146780513</v>
+        <v>1.030398280006548</v>
       </c>
       <c r="J16">
-        <v>1.076476964682975</v>
+        <v>0.7981098092663611</v>
       </c>
       <c r="K16">
-        <v>1.034464456695857</v>
+        <v>1.024811563277891</v>
       </c>
       <c r="L16">
-        <v>1.075800276019674</v>
+        <v>0.8189422902691691</v>
       </c>
       <c r="M16">
-        <v>1.082009505496947</v>
+        <v>0.8257192892226721</v>
       </c>
       <c r="N16">
-        <v>1.078005685446458</v>
+        <v>0.799243216739994</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.072021802549288</v>
+        <v>0.7598800743494288</v>
       </c>
       <c r="D17">
-        <v>1.031251630327275</v>
+        <v>1.011908787632563</v>
       </c>
       <c r="E17">
-        <v>1.073938197482961</v>
+        <v>0.8015285367770778</v>
       </c>
       <c r="F17">
-        <v>1.080176698508347</v>
+        <v>0.8085068455892556</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034722229879739</v>
+        <v>1.030398280006548</v>
       </c>
       <c r="J17">
-        <v>1.077970906458706</v>
+        <v>0.7981098092663611</v>
       </c>
       <c r="K17">
-        <v>1.034634102757089</v>
+        <v>1.024811563277891</v>
       </c>
       <c r="L17">
-        <v>1.077176943806046</v>
+        <v>0.8189422902691691</v>
       </c>
       <c r="M17">
-        <v>1.083395481586696</v>
+        <v>0.8257192892226721</v>
       </c>
       <c r="N17">
-        <v>1.079501748790868</v>
+        <v>0.799243216739994</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.072971010524045</v>
+        <v>0.7598800743494288</v>
       </c>
       <c r="D18">
-        <v>1.03139262580981</v>
+        <v>1.011908787632563</v>
       </c>
       <c r="E18">
-        <v>1.074780610409406</v>
+        <v>0.8015285367770778</v>
       </c>
       <c r="F18">
-        <v>1.081024135655641</v>
+        <v>0.8085068455892556</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034796263411197</v>
+        <v>1.030398280006548</v>
       </c>
       <c r="J18">
-        <v>1.078838650872932</v>
+        <v>0.7981098092663611</v>
       </c>
       <c r="K18">
-        <v>1.034732482586294</v>
+        <v>1.024811563277891</v>
       </c>
       <c r="L18">
-        <v>1.077976451353359</v>
+        <v>0.8189422902691691</v>
       </c>
       <c r="M18">
-        <v>1.084200293586128</v>
+        <v>0.8257192892226721</v>
       </c>
       <c r="N18">
-        <v>1.080370725501694</v>
+        <v>0.799243216739994</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.073294033547345</v>
+        <v>0.7598800743494288</v>
       </c>
       <c r="D19">
-        <v>1.031440618926344</v>
+        <v>1.011908787632563</v>
       </c>
       <c r="E19">
-        <v>1.075067266107048</v>
+        <v>0.8015285367770778</v>
       </c>
       <c r="F19">
-        <v>1.081312483337479</v>
+        <v>0.8085068455892556</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034821393028898</v>
+        <v>1.030398280006548</v>
       </c>
       <c r="J19">
-        <v>1.079133918488378</v>
+        <v>0.7981098092663611</v>
       </c>
       <c r="K19">
-        <v>1.03476593111551</v>
+        <v>1.024811563277891</v>
       </c>
       <c r="L19">
-        <v>1.078248479744929</v>
+        <v>0.8189422902691691</v>
       </c>
       <c r="M19">
-        <v>1.084474109458128</v>
+        <v>0.8257192892226721</v>
       </c>
       <c r="N19">
-        <v>1.080666412431022</v>
+        <v>0.799243216739994</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.071846900769905</v>
+        <v>0.7598800743494288</v>
       </c>
       <c r="D20">
-        <v>1.031225655887883</v>
+        <v>1.011908787632563</v>
       </c>
       <c r="E20">
-        <v>1.073782962391629</v>
+        <v>0.8015285367770778</v>
       </c>
       <c r="F20">
-        <v>1.080020529215615</v>
+        <v>0.8085068455892556</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034708557759604</v>
+        <v>1.030398280006548</v>
       </c>
       <c r="J20">
-        <v>1.077810999668594</v>
+        <v>0.7981098092663611</v>
       </c>
       <c r="K20">
-        <v>1.034615960619753</v>
+        <v>1.024811563277891</v>
       </c>
       <c r="L20">
-        <v>1.077029601992348</v>
+        <v>0.8189422902691691</v>
       </c>
       <c r="M20">
-        <v>1.08324715399891</v>
+        <v>0.8257192892226721</v>
       </c>
       <c r="N20">
-        <v>1.079341614914773</v>
+        <v>0.799243216739994</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.067097106009377</v>
+        <v>0.7598800743494288</v>
       </c>
       <c r="D21">
-        <v>1.030520980690955</v>
+        <v>1.011908787632563</v>
       </c>
       <c r="E21">
-        <v>1.069565935544834</v>
+        <v>0.8015285367770778</v>
       </c>
       <c r="F21">
-        <v>1.075777166563848</v>
+        <v>0.8085068455892556</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034333737081951</v>
+        <v>1.030398280006548</v>
       </c>
       <c r="J21">
-        <v>1.073466620450771</v>
+        <v>0.7981098092663611</v>
       </c>
       <c r="K21">
-        <v>1.034121629606209</v>
+        <v>1.024811563277891</v>
       </c>
       <c r="L21">
-        <v>1.07302547576916</v>
+        <v>0.8189422902691691</v>
       </c>
       <c r="M21">
-        <v>1.079215298956916</v>
+        <v>0.8257192892226721</v>
       </c>
       <c r="N21">
-        <v>1.074991066180153</v>
+        <v>0.799243216739994</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.064074741281016</v>
+        <v>0.7598800743494288</v>
       </c>
       <c r="D22">
-        <v>1.030073373844432</v>
+        <v>1.011908787632563</v>
       </c>
       <c r="E22">
-        <v>1.066881311074309</v>
+        <v>0.8015285367770778</v>
       </c>
       <c r="F22">
-        <v>1.073074863808862</v>
+        <v>0.8085068455892556</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034091844788962</v>
+        <v>1.030398280006548</v>
       </c>
       <c r="J22">
-        <v>1.070700479949765</v>
+        <v>0.7981098092663611</v>
       </c>
       <c r="K22">
-        <v>1.033805544157839</v>
+        <v>1.024811563277891</v>
       </c>
       <c r="L22">
-        <v>1.070474900426695</v>
+        <v>0.8189422902691691</v>
       </c>
       <c r="M22">
-        <v>1.076646166572024</v>
+        <v>0.8257192892226721</v>
       </c>
       <c r="N22">
-        <v>1.072220997442355</v>
+        <v>0.799243216739994</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.065680461567747</v>
+        <v>0.7598800743494288</v>
       </c>
       <c r="D23">
-        <v>1.030311096351805</v>
+        <v>1.011908787632563</v>
       </c>
       <c r="E23">
-        <v>1.068307715526734</v>
+        <v>0.8015285367770778</v>
       </c>
       <c r="F23">
-        <v>1.07451074588247</v>
+        <v>0.8085068455892556</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034220674011907</v>
+        <v>1.030398280006548</v>
       </c>
       <c r="J23">
-        <v>1.072170238255548</v>
+        <v>0.7981098092663611</v>
       </c>
       <c r="K23">
-        <v>1.033973613905696</v>
+        <v>1.024811563277891</v>
       </c>
       <c r="L23">
-        <v>1.071830222177512</v>
+        <v>0.8189422902691691</v>
       </c>
       <c r="M23">
-        <v>1.078011432066209</v>
+        <v>0.8257192892226721</v>
       </c>
       <c r="N23">
-        <v>1.073692842973516</v>
+        <v>0.799243216739994</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.071925943009241</v>
+        <v>0.7598800743494288</v>
       </c>
       <c r="D24">
-        <v>1.031237394134564</v>
+        <v>1.011908787632563</v>
       </c>
       <c r="E24">
-        <v>1.073853117229439</v>
+        <v>0.8015285367770778</v>
       </c>
       <c r="F24">
-        <v>1.080091106563909</v>
+        <v>0.8085068455892556</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034714737687242</v>
+        <v>1.030398280006548</v>
       </c>
       <c r="J24">
-        <v>1.077883265915003</v>
+        <v>0.7981098092663611</v>
       </c>
       <c r="K24">
-        <v>1.034624160036699</v>
+        <v>1.024811563277891</v>
       </c>
       <c r="L24">
-        <v>1.077096190151747</v>
+        <v>0.8189422902691691</v>
       </c>
       <c r="M24">
-        <v>1.083314187973278</v>
+        <v>0.8257192892226721</v>
       </c>
       <c r="N24">
-        <v>1.079413983787542</v>
+        <v>0.799243216739994</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.079026199013511</v>
+        <v>0.7598800743494288</v>
       </c>
       <c r="D25">
-        <v>1.032293116840761</v>
+        <v>1.011908787632563</v>
       </c>
       <c r="E25">
-        <v>1.080151961695951</v>
+        <v>0.8015285367770778</v>
       </c>
       <c r="F25">
-        <v>1.086425629927133</v>
+        <v>0.8085068455892556</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035261651408421</v>
+        <v>1.030398280006548</v>
       </c>
       <c r="J25">
-        <v>1.084370701988386</v>
+        <v>0.7981098092663611</v>
       </c>
       <c r="K25">
-        <v>1.035356708200856</v>
+        <v>1.024811563277891</v>
       </c>
       <c r="L25">
-        <v>1.083071332386426</v>
+        <v>0.8189422902691691</v>
       </c>
       <c r="M25">
-        <v>1.08932711869216</v>
+        <v>0.8257192892226721</v>
       </c>
       <c r="N25">
-        <v>1.085910632764267</v>
+        <v>0.799243216739994</v>
       </c>
     </row>
   </sheetData>
